--- a/ML Main/traning.xlsx
+++ b/ML Main/traning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UnoReverse\ML Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9B9A5-4B5C-4069-B053-B792B095517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5CBE45-9C1F-4339-9E77-0BACCBD94BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S966"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2141,6 +2141,9 @@
       </c>
       <c r="E16" s="9">
         <v>3561008</v>
+      </c>
+      <c r="F16">
+        <v>8.9</v>
       </c>
       <c r="G16" s="18">
         <v>1069</v>

--- a/ML Main/traning.xlsx
+++ b/ML Main/traning.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UnoReverse\ML Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5CBE45-9C1F-4339-9E77-0BACCBD94BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6A869-DD95-47F5-82A5-626E09070FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1306,7 +1317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1703,11 +1714,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.09765625" customWidth="1"/>
     <col min="2" max="2" width="65.09765625" customWidth="1"/>
@@ -1721,7 +1732,7 @@
     <col min="10" max="24" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="34.5" customHeight="1">
+    <row r="2" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1782,7 +1793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="34.5" customHeight="1">
+    <row r="3" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1814,7 +1825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="34.5" customHeight="1">
+    <row r="4" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1846,7 +1857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="34.5" customHeight="1">
+    <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1878,7 +1889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="34.5" customHeight="1">
+    <row r="6" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -1910,7 +1921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34.5" customHeight="1">
+    <row r="7" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -1942,7 +1953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="34.5" customHeight="1">
+    <row r="8" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>11</v>
       </c>
@@ -1965,7 +1976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="34.5" customHeight="1">
+    <row r="9" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>12</v>
       </c>
@@ -1988,7 +1999,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="34.5" customHeight="1">
+    <row r="10" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>13</v>
       </c>
@@ -2011,7 +2022,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="34.5" customHeight="1">
+    <row r="11" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>14</v>
       </c>
@@ -2034,7 +2045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="34.5" customHeight="1">
+    <row r="12" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>17</v>
       </c>
@@ -2057,7 +2068,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="34.5" customHeight="1">
+    <row r="13" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>18</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="34.5" customHeight="1">
+    <row r="14" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>19</v>
       </c>
@@ -2103,7 +2114,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34.5" customHeight="1">
+    <row r="15" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>20</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="34.5" customHeight="1">
+    <row r="16" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>21</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="34.5" customHeight="1">
+    <row r="17" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>22</v>
       </c>
@@ -2172,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="34.5" customHeight="1">
+    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>23</v>
       </c>
@@ -2195,7 +2206,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" customHeight="1">
+    <row r="19" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>24</v>
       </c>
@@ -2218,7 +2229,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="34.5" customHeight="1">
+    <row r="20" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>25</v>
       </c>
@@ -2241,7 +2252,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34.5" customHeight="1">
+    <row r="21" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>26</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="34.5" customHeight="1">
+    <row r="22" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>27</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="34.5" customHeight="1">
+    <row r="23" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>28</v>
       </c>
@@ -2310,7 +2321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="34.5" customHeight="1">
+    <row r="24" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>29</v>
       </c>
@@ -2333,7 +2344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1">
+    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>30</v>
       </c>
@@ -2356,7 +2367,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="34.5" customHeight="1">
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>34</v>
       </c>
@@ -2379,7 +2390,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="34.5" customHeight="1">
+    <row r="27" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>35</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="34.5" customHeight="1">
+    <row r="28" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>36</v>
       </c>
@@ -2425,7 +2436,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="34.5" customHeight="1">
+    <row r="29" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>37</v>
       </c>
@@ -2448,7 +2459,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45.75" customHeight="1">
+    <row r="30" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>38</v>
       </c>
@@ -2471,7 +2482,7 @@
         <v>9802</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="34.5" customHeight="1">
+    <row r="31" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>41</v>
       </c>
@@ -2494,7 +2505,7 @@
         <v>4048</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="34.5" customHeight="1">
+    <row r="32" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>43</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="34.5" customHeight="1">
+    <row r="33" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44</v>
       </c>
@@ -2540,7 +2551,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="34.5" customHeight="1">
+    <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>46</v>
       </c>
@@ -2563,7 +2574,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="34.5" customHeight="1">
+    <row r="35" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>47</v>
       </c>
@@ -2586,7 +2597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="69" customHeight="1">
+    <row r="36" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>48</v>
       </c>
@@ -2609,7 +2620,7 @@
         <v>9524</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="34.5" customHeight="1">
+    <row r="37" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>49</v>
       </c>
@@ -2632,7 +2643,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="34.5" customHeight="1">
+    <row r="38" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>50</v>
       </c>
@@ -2655,7 +2666,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="34.5" customHeight="1">
+    <row r="39" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>51</v>
       </c>
@@ -2678,7 +2689,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="34.5" customHeight="1">
+    <row r="40" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>52</v>
       </c>
@@ -2701,7 +2712,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="34.5" customHeight="1">
+    <row r="41" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>53</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1">
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>54</v>
       </c>
@@ -2747,7 +2758,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="46.5" customHeight="1">
+    <row r="43" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -2770,7 +2781,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="46.5" customHeight="1">
+    <row r="44" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>57</v>
       </c>
@@ -2793,7 +2804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="46.5" customHeight="1">
+    <row r="45" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>58</v>
       </c>
@@ -2816,7 +2827,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45.75" customHeight="1">
+    <row r="46" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>59</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="69" customHeight="1">
+    <row r="47" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>60</v>
       </c>
@@ -2862,7 +2873,7 @@
         <v>9308</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="46.5" customHeight="1">
+    <row r="48" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>61</v>
       </c>
@@ -2885,7 +2896,7 @@
         <v>7272</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45.75" customHeight="1">
+    <row r="49" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -2908,7 +2919,7 @@
         <v>10138</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.5" customHeight="1">
+    <row r="50" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -2931,7 +2942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.5" customHeight="1">
+    <row r="51" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>64</v>
       </c>
@@ -2954,7 +2965,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="46.5" customHeight="1">
+    <row r="52" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>65</v>
       </c>
@@ -2977,7 +2988,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.5" customHeight="1">
+    <row r="53" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -3000,7 +3011,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.5" customHeight="1">
+    <row r="54" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>67</v>
       </c>
@@ -3023,7 +3034,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.5" customHeight="1">
+    <row r="55" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>68</v>
       </c>
@@ -3046,7 +3057,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="23.25" customHeight="1">
+    <row r="56" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>69</v>
       </c>
@@ -3069,7 +3080,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.5" customHeight="1">
+    <row r="57" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>72</v>
       </c>
@@ -3092,7 +3103,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.5" customHeight="1">
+    <row r="58" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>73</v>
       </c>
@@ -3115,7 +3126,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="23.25" customHeight="1">
+    <row r="59" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>74</v>
       </c>
@@ -3138,7 +3149,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.5" customHeight="1">
+    <row r="60" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>75</v>
       </c>
@@ -3161,7 +3172,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.5" customHeight="1">
+    <row r="61" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>76</v>
       </c>
@@ -3184,7 +3195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.5" customHeight="1">
+    <row r="62" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>77</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="69" customHeight="1">
+    <row r="63" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>78</v>
       </c>
@@ -3230,7 +3241,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="69" customHeight="1">
+    <row r="64" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>79</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="57.75" customHeight="1">
+    <row r="65" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>80</v>
       </c>
@@ -3276,7 +3287,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="57.75" customHeight="1">
+    <row r="66" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>81</v>
       </c>
@@ -3299,7 +3310,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="57.75" customHeight="1">
+    <row r="67" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>82</v>
       </c>
@@ -3322,7 +3333,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="57.75" customHeight="1">
+    <row r="68" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>83</v>
       </c>
@@ -3345,2820 +3356,2820 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="57.75" customHeight="1">
+    <row r="69" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="3"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:7" ht="57.75" customHeight="1">
+    <row r="70" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:7" ht="57.75" customHeight="1">
+    <row r="71" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="8"/>
       <c r="D71" s="3"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="57.75" customHeight="1">
+    <row r="72" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="57.75" customHeight="1">
+    <row r="73" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="57.75" customHeight="1">
+    <row r="74" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="57.75" customHeight="1">
+    <row r="75" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="8"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="57.75" customHeight="1">
+    <row r="76" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="57.75" customHeight="1">
+    <row r="77" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="57.75" customHeight="1">
+    <row r="78" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="5"/>
       <c r="C78" s="8"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="57.75" customHeight="1">
+    <row r="79" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="46.5" customHeight="1">
+    <row r="80" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="57.75" customHeight="1">
+    <row r="81" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="3"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="46.5" customHeight="1">
+    <row r="82" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="8"/>
       <c r="C82" s="7"/>
       <c r="D82" s="3"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" ht="45.75" customHeight="1">
+    <row r="83" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="8"/>
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="46.5" customHeight="1">
+    <row r="84" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="8"/>
       <c r="C84" s="7"/>
       <c r="D84" s="3"/>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" ht="28.5" customHeight="1">
+    <row r="85" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="3"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="45.75" customHeight="1">
+    <row r="86" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="3"/>
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="1:5" ht="46.5" customHeight="1">
+    <row r="87" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="8"/>
       <c r="C87" s="7"/>
       <c r="D87" s="3"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="57.75" customHeight="1">
+    <row r="88" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="3"/>
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="1:5" ht="45.75" customHeight="1">
+    <row r="89" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
       <c r="D89" s="3"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="28.5" customHeight="1">
+    <row r="90" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="1:5" ht="28.5" customHeight="1">
+    <row r="91" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="3"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="28.5" customHeight="1">
+    <row r="92" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="3"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="1:5" ht="28.5" customHeight="1">
+    <row r="93" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="3"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="34.5" customHeight="1">
+    <row r="94" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="3"/>
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="1:5" ht="46.5" customHeight="1">
+    <row r="95" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="69" customHeight="1">
+    <row r="96" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
       <c r="D96" s="3"/>
       <c r="E96" s="9"/>
     </row>
-    <row r="97" spans="1:5" ht="28.5" customHeight="1">
+    <row r="97" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="3"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="34.5" customHeight="1">
+    <row r="98" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
       <c r="D98" s="3"/>
       <c r="E98" s="14"/>
     </row>
-    <row r="99" spans="1:5" ht="34.5" customHeight="1">
+    <row r="99" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:5" ht="34.5" customHeight="1">
+    <row r="100" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="46.5" customHeight="1">
+    <row r="101" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="1:5" ht="69" customHeight="1">
+    <row r="102" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="1:5" ht="46.5" customHeight="1">
+    <row r="103" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="1:5" ht="34.5" customHeight="1">
+    <row r="104" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:5" ht="46.5" customHeight="1">
+    <row r="105" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:5" ht="34.5" customHeight="1">
+    <row r="106" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="1:5" ht="57.75" customHeight="1">
+    <row r="107" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="1:5" ht="34.5" customHeight="1">
+    <row r="108" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="1:5" ht="34.5" customHeight="1">
+    <row r="109" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="8"/>
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="1:5" ht="34.5" customHeight="1">
+    <row r="110" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:5" ht="34.5" customHeight="1">
+    <row r="111" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="8"/>
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="1:5" ht="34.5" customHeight="1">
+    <row r="112" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="1:3" ht="34.5" customHeight="1">
+    <row r="113" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="1:3" ht="34.5" customHeight="1">
+    <row r="114" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" ht="34.5" customHeight="1">
+    <row r="115" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="8"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" ht="46.5" customHeight="1">
+    <row r="116" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="1:3" ht="46.5" customHeight="1">
+    <row r="117" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="1:3" ht="45.75" customHeight="1">
+    <row r="118" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="8"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" ht="46.5" customHeight="1">
+    <row r="119" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="1:3" ht="46.5" customHeight="1">
+    <row r="120" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="1:3" ht="46.5" customHeight="1">
+    <row r="121" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="8"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" ht="45.75" customHeight="1">
+    <row r="122" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="1:3" ht="46.5" customHeight="1">
+    <row r="123" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="8"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" ht="34.5" customHeight="1">
+    <row r="124" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="1:3" ht="34.5" customHeight="1">
+    <row r="125" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="1:3" ht="34.5" customHeight="1">
+    <row r="126" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="1:3" ht="34.5" customHeight="1">
+    <row r="127" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="1:3" ht="34.5" customHeight="1">
+    <row r="128" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="1:3" ht="34.5" customHeight="1">
+    <row r="129" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="1:3" ht="34.5" customHeight="1">
+    <row r="130" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:3" ht="34.5" customHeight="1">
+    <row r="131" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:3" ht="34.5" customHeight="1">
+    <row r="132" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:3" ht="34.5" customHeight="1">
+    <row r="133" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:3" ht="34.5" customHeight="1">
+    <row r="134" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="8"/>
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="1:3" ht="34.5" customHeight="1">
+    <row r="135" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="8"/>
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="1:3" ht="34.5" customHeight="1">
+    <row r="136" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="8"/>
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="1:3" ht="34.5" customHeight="1">
+    <row r="137" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="8"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="1:3" ht="34.5" customHeight="1">
+    <row r="138" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
       <c r="B138" s="8"/>
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="1:3" ht="34.5" customHeight="1">
+    <row r="139" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:3" ht="34.5" customHeight="1">
+    <row r="140" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:3" ht="34.5" customHeight="1">
+    <row r="141" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="8"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:3" ht="34.5" customHeight="1">
+    <row r="142" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="8"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:3" ht="34.5" customHeight="1">
+    <row r="143" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="8"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:3" ht="34.5" customHeight="1">
+    <row r="144" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
       <c r="B144" s="8"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="1:3" ht="34.5" customHeight="1">
+    <row r="145" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="8"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="1:3" ht="34.5" customHeight="1">
+    <row r="146" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" ht="23.25" customHeight="1">
+    <row r="147" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="8"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1">
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
     </row>
-    <row r="149" spans="1:3" ht="34.5" customHeight="1">
+    <row r="149" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="8"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="1:3" ht="34.5" customHeight="1">
+    <row r="150" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="8"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="1:3" ht="34.5" customHeight="1">
+    <row r="151" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="1:3" ht="34.5" customHeight="1">
+    <row r="152" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="1:3" ht="34.5" customHeight="1">
+    <row r="153" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="1:3" ht="34.5" customHeight="1">
+    <row r="154" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="1:3" ht="34.5" customHeight="1">
+    <row r="155" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="8"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" ht="34.5" customHeight="1">
+    <row r="156" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
       <c r="B156" s="8"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" ht="34.5" customHeight="1">
+    <row r="157" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
       <c r="B157" s="8"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" ht="28.5" customHeight="1">
+    <row r="158" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
       <c r="B158" s="8"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" ht="34.5" customHeight="1">
+    <row r="159" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
       <c r="B159" s="8"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" ht="34.5" customHeight="1">
+    <row r="160" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
       <c r="B160" s="8"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" ht="34.5" customHeight="1">
+    <row r="161" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="1:3" ht="34.5" customHeight="1">
+    <row r="162" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="1:3" ht="34.5" customHeight="1">
+    <row r="163" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="1:3" ht="28.5" customHeight="1">
+    <row r="164" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" ht="34.5" customHeight="1">
+    <row r="165" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="1:3" ht="34.5" customHeight="1">
+    <row r="166" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="1:3" ht="34.5" customHeight="1">
+    <row r="167" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="1:3" ht="34.5" customHeight="1">
+    <row r="168" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="16"/>
       <c r="B168" s="6"/>
       <c r="C168" s="16"/>
     </row>
-    <row r="169" spans="1:3" ht="34.5" customHeight="1">
+    <row r="169" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="1:3" ht="34.5" customHeight="1">
+    <row r="170" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="1:3" ht="34.5" customHeight="1">
+    <row r="171" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="1:3" ht="34.5" customHeight="1">
+    <row r="172" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="1:3" ht="34.5" customHeight="1">
+    <row r="173" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
       <c r="B173" s="6"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="1:3" ht="34.5" customHeight="1">
+    <row r="174" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="1:3" ht="34.5" customHeight="1">
+    <row r="175" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="1:3" ht="34.5" customHeight="1">
+    <row r="176" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" ht="34.5" customHeight="1">
+    <row r="177" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="1:3" ht="34.5" customHeight="1">
+    <row r="178" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="1:3" ht="46.5" customHeight="1">
+    <row r="179" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
       <c r="B179" s="6"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="1:3" ht="34.5" customHeight="1">
+    <row r="180" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="13"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
     </row>
-    <row r="181" spans="1:3" ht="34.5" customHeight="1">
+    <row r="181" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="13"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
     </row>
-    <row r="182" spans="1:3" ht="34.5" customHeight="1">
+    <row r="182" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="13"/>
       <c r="B182" s="8"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" ht="28.5" customHeight="1">
+    <row r="183" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="13"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" ht="34.5" customHeight="1">
+    <row r="184" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="13"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
     </row>
-    <row r="185" spans="1:3" ht="34.5" customHeight="1">
+    <row r="185" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
       <c r="B185" s="6"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="1:3" ht="23.25" customHeight="1">
+    <row r="186" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
       <c r="B186" s="8"/>
       <c r="C186" s="7"/>
     </row>
-    <row r="187" spans="1:3" ht="14.25" customHeight="1">
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
     </row>
-    <row r="188" spans="1:3" ht="92.25" customHeight="1">
+    <row r="188" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
     </row>
-    <row r="189" spans="1:3" ht="92.25" customHeight="1">
+    <row r="189" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
     </row>
-    <row r="190" spans="1:3" ht="34.5" customHeight="1">
+    <row r="190" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
     </row>
-    <row r="191" spans="1:3" ht="34.5" customHeight="1">
+    <row r="191" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
     </row>
-    <row r="192" spans="1:3" ht="34.5" customHeight="1">
+    <row r="192" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="13"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
     </row>
-    <row r="193" spans="1:3" ht="34.5" customHeight="1">
+    <row r="193" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="1:3" ht="34.5" customHeight="1">
+    <row r="194" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="13"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="1:3" ht="28.5" customHeight="1">
+    <row r="195" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="13"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" ht="23.25" customHeight="1">
+    <row r="196" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="13"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="1:3" ht="28.5" customHeight="1">
+    <row r="197" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" ht="28.5" customHeight="1">
+    <row r="198" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
       <c r="B198" s="8"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" ht="28.5" customHeight="1">
+    <row r="199" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" ht="28.5" customHeight="1">
+    <row r="200" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" ht="34.5" customHeight="1">
+    <row r="201" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
       <c r="B201" s="6"/>
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="1:3" ht="28.5" customHeight="1">
+    <row r="202" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
       <c r="B202" s="8"/>
       <c r="C202" s="6"/>
     </row>
-    <row r="203" spans="1:3" ht="34.5" customHeight="1">
+    <row r="203" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="6"/>
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="1:3" ht="34.5" customHeight="1">
+    <row r="204" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="6"/>
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="1:3" ht="14.25" customHeight="1">
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="8"/>
       <c r="C205" s="17"/>
     </row>
-    <row r="206" spans="1:3" ht="34.5" customHeight="1">
+    <row r="206" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="16"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="1:3" ht="45.75" customHeight="1">
+    <row r="207" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="1:3" ht="46.5" customHeight="1">
+    <row r="208" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="13"/>
       <c r="B208" s="8"/>
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="1:3" ht="46.5" customHeight="1">
+    <row r="209" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="1:3" ht="46.5" customHeight="1">
+    <row r="210" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
       <c r="B210" s="8"/>
       <c r="C210" s="5"/>
     </row>
-    <row r="211" spans="1:3" ht="45.75" customHeight="1">
+    <row r="211" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
       <c r="B211" s="8"/>
       <c r="C211" s="5"/>
     </row>
-    <row r="212" spans="1:3" ht="46.5" customHeight="1">
+    <row r="212" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="13"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="46.5" customHeight="1">
+    <row r="213" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="45.75" customHeight="1">
+    <row r="214" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
       <c r="B214" s="8"/>
       <c r="C214" s="5"/>
     </row>
-    <row r="215" spans="1:3" ht="46.5" customHeight="1">
+    <row r="215" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
       <c r="B215" s="8"/>
       <c r="C215" s="5"/>
     </row>
-    <row r="216" spans="1:3" ht="46.5" customHeight="1">
+    <row r="216" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="13"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="1:3" ht="46.5" customHeight="1">
+    <row r="217" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="1:3" ht="45.75" customHeight="1">
+    <row r="218" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="13"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="1:3" ht="46.5" customHeight="1">
+    <row r="219" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1">
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="13"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="1:3" ht="34.5" customHeight="1">
+    <row r="221" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="1:3" ht="45.75" customHeight="1">
+    <row r="222" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="13"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="1:3" ht="46.5" customHeight="1">
+    <row r="223" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="13"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="1:3" ht="34.5" customHeight="1">
+    <row r="224" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="13"/>
       <c r="B224" s="6"/>
       <c r="C224" s="5"/>
     </row>
-    <row r="225" spans="1:3" ht="46.5" customHeight="1">
+    <row r="225" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="13"/>
       <c r="B225" s="6"/>
       <c r="C225" s="5"/>
     </row>
-    <row r="226" spans="1:3" ht="57.75" customHeight="1">
+    <row r="226" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="13"/>
       <c r="B226" s="6"/>
       <c r="C226" s="5"/>
     </row>
-    <row r="227" spans="1:3" ht="57.75" customHeight="1">
+    <row r="227" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="13"/>
       <c r="B227" s="6"/>
       <c r="C227" s="5"/>
     </row>
-    <row r="228" spans="1:3" ht="46.5" customHeight="1">
+    <row r="228" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="13"/>
       <c r="B228" s="6"/>
       <c r="C228" s="5"/>
     </row>
-    <row r="229" spans="1:3" ht="28.5" customHeight="1">
+    <row r="229" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
       <c r="B229" s="6"/>
       <c r="C229" s="5"/>
     </row>
-    <row r="230" spans="1:3" ht="34.5" customHeight="1">
+    <row r="230" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="13"/>
       <c r="B230" s="6"/>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="1:3" ht="69" customHeight="1">
+    <row r="231" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="13"/>
       <c r="B231" s="6"/>
       <c r="C231" s="5"/>
     </row>
-    <row r="232" spans="1:3" ht="69" customHeight="1">
+    <row r="232" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="13"/>
       <c r="B232" s="6"/>
       <c r="C232" s="5"/>
     </row>
-    <row r="233" spans="1:3" ht="69" customHeight="1">
+    <row r="233" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="13"/>
       <c r="B233" s="6"/>
       <c r="C233" s="5"/>
     </row>
-    <row r="234" spans="1:3" ht="14.25" customHeight="1">
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="13"/>
       <c r="B234" s="8"/>
       <c r="C234" s="5"/>
     </row>
-    <row r="235" spans="1:3" ht="14.25" customHeight="1">
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="15"/>
       <c r="B235" s="8"/>
       <c r="C235" s="15"/>
     </row>
-    <row r="236" spans="1:3" ht="45.75" customHeight="1">
+    <row r="236" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="6"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="34.5" customHeight="1">
+    <row r="237" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="13"/>
       <c r="B237" s="6"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="34.5" customHeight="1">
+    <row r="238" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="13"/>
       <c r="B238" s="6"/>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="1:3" ht="28.5" customHeight="1">
+    <row r="239" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="13"/>
       <c r="B239" s="8"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="1:3" ht="28.5" customHeight="1">
+    <row r="240" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="13"/>
       <c r="B240" s="8"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:3" ht="28.5" customHeight="1">
+    <row r="241" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="13"/>
       <c r="B241" s="8"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="1:3" ht="34.5" customHeight="1">
+    <row r="242" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="13"/>
       <c r="B242" s="8"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" ht="45.75" customHeight="1">
+    <row r="243" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="13"/>
       <c r="B243" s="8"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" ht="28.5" customHeight="1">
+    <row r="244" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
       <c r="B244" s="8"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" ht="28.5" customHeight="1">
+    <row r="245" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="13"/>
       <c r="B245" s="8"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" ht="28.5" customHeight="1">
+    <row r="246" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="13"/>
       <c r="B246" s="8"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" ht="34.5" customHeight="1">
+    <row r="247" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="13"/>
       <c r="B247" s="8"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" ht="28.5" customHeight="1">
+    <row r="248" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
       <c r="B248" s="8"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" ht="34.5" customHeight="1">
+    <row r="249" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="13"/>
       <c r="B249" s="8"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" ht="28.5" customHeight="1">
+    <row r="250" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="13"/>
       <c r="B250" s="8"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" ht="23.25" customHeight="1">
+    <row r="251" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
       <c r="B251" s="8"/>
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="1:3" ht="28.5" customHeight="1">
+    <row r="252" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
       <c r="B252" s="8"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" ht="28.5" customHeight="1">
+    <row r="253" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="13"/>
       <c r="B253" s="8"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" ht="28.5" customHeight="1">
+    <row r="254" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
       <c r="B254" s="8"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" ht="34.5" customHeight="1">
+    <row r="255" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="13"/>
       <c r="B255" s="8"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" ht="46.5" customHeight="1">
+    <row r="256" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="13"/>
       <c r="B256" s="8"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" ht="14.25" customHeight="1">
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="13"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="1:3" ht="14.25" customHeight="1">
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="1:3" ht="28.5" customHeight="1">
+    <row r="259" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="13"/>
       <c r="B259" s="8"/>
       <c r="C259" s="6"/>
     </row>
-    <row r="260" spans="1:3" ht="28.5" customHeight="1">
+    <row r="260" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
       <c r="B260" s="8"/>
       <c r="C260" s="6"/>
     </row>
-    <row r="261" spans="1:3" ht="34.5" customHeight="1">
+    <row r="261" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="13"/>
       <c r="B261" s="8"/>
       <c r="C261" s="6"/>
     </row>
-    <row r="262" spans="1:3" ht="28.5" customHeight="1">
+    <row r="262" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="13"/>
       <c r="B262" s="8"/>
       <c r="C262" s="6"/>
     </row>
-    <row r="263" spans="1:3" ht="34.5" customHeight="1">
+    <row r="263" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="13"/>
       <c r="B263" s="8"/>
       <c r="C263" s="6"/>
     </row>
-    <row r="264" spans="1:3" ht="28.5" customHeight="1">
+    <row r="264" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
       <c r="B264" s="8"/>
       <c r="C264" s="6"/>
     </row>
-    <row r="265" spans="1:3" ht="28.5" customHeight="1">
+    <row r="265" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="13"/>
       <c r="B265" s="8"/>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" ht="28.5" customHeight="1">
+    <row r="266" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="13"/>
       <c r="B266" s="8"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" ht="28.5" customHeight="1">
+    <row r="267" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="13"/>
       <c r="B267" s="8"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" ht="28.5" customHeight="1">
+    <row r="268" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="13"/>
       <c r="B268" s="8"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" ht="45.75" customHeight="1">
+    <row r="269" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="13"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="1:3" ht="46.5" customHeight="1">
+    <row r="270" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="13"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="1:3" ht="46.5" customHeight="1">
+    <row r="271" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="13"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="1:3" ht="46.5" customHeight="1">
+    <row r="272" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="1:3" ht="45.75" customHeight="1">
+    <row r="273" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="13"/>
       <c r="B273" s="6"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" ht="46.5" customHeight="1">
+    <row r="274" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="13"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" ht="46.5" customHeight="1">
+    <row r="275" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="13"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="1:3" ht="28.5" customHeight="1">
+    <row r="276" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
       <c r="B276" s="8"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="34.5" customHeight="1">
+    <row r="277" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="13"/>
       <c r="B277" s="6"/>
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="1:3" ht="14.25" customHeight="1">
+    <row r="278" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="15"/>
       <c r="B278" s="8"/>
       <c r="C278" s="15"/>
     </row>
-    <row r="279" spans="1:3" ht="28.5" customHeight="1">
+    <row r="279" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="28.5" customHeight="1">
+    <row r="280" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
       <c r="B280" s="8"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="23.25" customHeight="1">
+    <row r="281" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="13"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="1:3" ht="28.5" customHeight="1">
+    <row r="282" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="13"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="46.5" customHeight="1">
+    <row r="283" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="13"/>
       <c r="B283" s="6"/>
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="1:3" ht="28.5" customHeight="1">
+    <row r="284" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="13"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="34.5" customHeight="1">
+    <row r="285" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="13"/>
       <c r="B285" s="6"/>
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="1:3" ht="28.5" customHeight="1">
+    <row r="286" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="13"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="28.5" customHeight="1">
+    <row r="287" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="13"/>
       <c r="B287" s="8"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="34.5" customHeight="1">
+    <row r="288" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="13"/>
       <c r="B288" s="6"/>
       <c r="C288" s="8"/>
     </row>
-    <row r="289" spans="1:3" ht="46.5" customHeight="1">
+    <row r="289" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="13"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="46.5" customHeight="1">
+    <row r="290" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="13"/>
       <c r="B290" s="8"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="69" customHeight="1">
+    <row r="291" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="13"/>
       <c r="B291" s="6"/>
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="1:3" ht="34.5" customHeight="1">
+    <row r="292" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="13"/>
       <c r="B292" s="6"/>
       <c r="C292" s="8"/>
     </row>
-    <row r="293" spans="1:3" ht="46.5" customHeight="1">
+    <row r="293" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
       <c r="B293" s="8"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="34.5" customHeight="1">
+    <row r="294" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
       <c r="B294" s="6"/>
       <c r="C294" s="8"/>
     </row>
-    <row r="295" spans="1:3" ht="46.5" customHeight="1">
+    <row r="295" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="8"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="34.5" customHeight="1">
+    <row r="296" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="13"/>
       <c r="B296" s="6"/>
       <c r="C296" s="8"/>
     </row>
-    <row r="297" spans="1:3" ht="28.5" customHeight="1">
+    <row r="297" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="6"/>
       <c r="C297" s="16"/>
     </row>
-    <row r="298" spans="1:3" ht="45.75" customHeight="1">
+    <row r="298" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="13"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="46.5" customHeight="1">
+    <row r="299" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
       <c r="B299" s="8"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="46.5" customHeight="1">
+    <row r="300" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
       <c r="B300" s="6"/>
       <c r="C300" s="8"/>
     </row>
-    <row r="301" spans="1:3" ht="34.5" customHeight="1">
+    <row r="301" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
       <c r="B301" s="6"/>
       <c r="C301" s="8"/>
     </row>
-    <row r="302" spans="1:3" ht="45.75" customHeight="1">
+    <row r="302" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="46.5" customHeight="1">
+    <row r="303" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
       <c r="B303" s="8"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="46.5" customHeight="1">
+    <row r="304" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="13"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="92.25" customHeight="1">
+    <row r="305" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>
       <c r="B305" s="6"/>
       <c r="C305" s="8"/>
     </row>
-    <row r="306" spans="1:3" ht="46.5" customHeight="1">
+    <row r="306" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="28.5" customHeight="1">
+    <row r="307" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="13"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="46.5" customHeight="1">
+    <row r="308" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
       <c r="B308" s="8"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="45.75" customHeight="1">
+    <row r="309" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="28.5" customHeight="1">
+    <row r="310" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="13"/>
       <c r="B310" s="6"/>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" ht="34.5" customHeight="1">
+    <row r="311" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="13"/>
       <c r="B311" s="6"/>
       <c r="C311" s="8"/>
     </row>
-    <row r="312" spans="1:3" ht="45.75" customHeight="1">
+    <row r="312" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="6"/>
       <c r="C312" s="8"/>
     </row>
-    <row r="313" spans="1:3" ht="46.5" customHeight="1">
+    <row r="313" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="28.5" customHeight="1">
+    <row r="314" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="34.5" customHeight="1">
+    <row r="315" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
       <c r="B315" s="8"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="46.5" customHeight="1">
+    <row r="316" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
       <c r="B316" s="8"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="45.75" customHeight="1">
+    <row r="317" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
       <c r="B317" s="8"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="46.5" customHeight="1">
+    <row r="318" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="13"/>
       <c r="B318" s="8"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="46.5" customHeight="1">
+    <row r="319" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="13"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="46.5" customHeight="1">
+    <row r="320" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="13"/>
       <c r="B320" s="8"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="28.5" customHeight="1">
+    <row r="321" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="13"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="23.25" customHeight="1">
+    <row r="322" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="13"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
     </row>
-    <row r="323" spans="1:3" ht="28.5" customHeight="1">
+    <row r="323" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="13"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="46.5" customHeight="1">
+    <row r="324" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="13"/>
       <c r="B324" s="6"/>
       <c r="C324" s="8"/>
     </row>
-    <row r="325" spans="1:3" ht="46.5" customHeight="1">
+    <row r="325" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="13"/>
       <c r="B325" s="6"/>
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="1:3" ht="34.5" customHeight="1">
+    <row r="326" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="13"/>
       <c r="B326" s="6"/>
       <c r="C326" s="8"/>
     </row>
-    <row r="327" spans="1:3" ht="34.5" customHeight="1">
+    <row r="327" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="13"/>
       <c r="B327" s="6"/>
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="1:3" ht="28.5" customHeight="1">
+    <row r="328" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="13"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="14.25" customHeight="1">
+    <row r="329" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="13"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="1:3" ht="28.5" customHeight="1">
+    <row r="330" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="16"/>
       <c r="B330" s="6"/>
       <c r="C330" s="8"/>
     </row>
-    <row r="331" spans="1:3" ht="45.75" customHeight="1">
+    <row r="331" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="13"/>
       <c r="B331" s="6"/>
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="1:3" ht="34.5" customHeight="1">
+    <row r="332" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="13"/>
       <c r="B332" s="6"/>
       <c r="C332" s="8"/>
     </row>
-    <row r="333" spans="1:3" ht="28.5" customHeight="1">
+    <row r="333" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="13"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="46.5" customHeight="1">
+    <row r="334" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="13"/>
       <c r="B334" s="6"/>
       <c r="C334" s="8"/>
     </row>
-    <row r="335" spans="1:3" ht="28.5" customHeight="1">
+    <row r="335" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="13"/>
       <c r="B335" s="8"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="28.5" customHeight="1">
+    <row r="336" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="13"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="28.5" customHeight="1">
+    <row r="337" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="13"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="23.25" customHeight="1">
+    <row r="338" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="13"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
     </row>
-    <row r="339" spans="1:3" ht="28.5" customHeight="1">
+    <row r="339" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="13"/>
       <c r="B339" s="8"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="28.5" customHeight="1">
+    <row r="340" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="13"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="34.5" customHeight="1">
+    <row r="341" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="13"/>
       <c r="B341" s="8"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="34.5" customHeight="1">
+    <row r="342" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="13"/>
       <c r="B342" s="8"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="28.5" customHeight="1">
+    <row r="343" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="13"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="34.5" customHeight="1">
+    <row r="344" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="13"/>
       <c r="B344" s="6"/>
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="1:3" ht="45.75" customHeight="1">
+    <row r="345" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="13"/>
       <c r="B345" s="6"/>
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="1:3" ht="46.5" customHeight="1">
+    <row r="346" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="13"/>
       <c r="B346" s="8"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="28.5" customHeight="1">
+    <row r="347" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="13"/>
       <c r="B347" s="6"/>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:3" ht="28.5" customHeight="1">
+    <row r="348" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="13"/>
       <c r="B348" s="6"/>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:3" ht="34.5" customHeight="1">
+    <row r="349" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="13"/>
       <c r="B349" s="8"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="34.5" customHeight="1">
+    <row r="350" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="13"/>
       <c r="B350" s="8"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="34.5" customHeight="1">
+    <row r="351" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="13"/>
       <c r="B351" s="8"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="34.5" customHeight="1">
+    <row r="352" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="13"/>
       <c r="B352" s="8"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="28.5" customHeight="1">
+    <row r="353" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="13"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="34.5" customHeight="1">
+    <row r="354" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="13"/>
       <c r="B354" s="8"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="34.5" customHeight="1">
+    <row r="355" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="13"/>
       <c r="B355" s="8"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="28.5" customHeight="1">
+    <row r="356" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="13"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="46.5" customHeight="1">
+    <row r="357" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="13"/>
       <c r="B357" s="8"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="34.5" customHeight="1">
+    <row r="358" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="13"/>
       <c r="B358" s="6"/>
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="1:3" ht="46.5" customHeight="1">
+    <row r="359" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="13"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="1:3" ht="46.5" customHeight="1">
+    <row r="360" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="13"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="1:3" ht="46.5" customHeight="1">
+    <row r="361" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="13"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="1:3" ht="45.75" customHeight="1">
+    <row r="362" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="13"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="1:3" ht="46.5" customHeight="1">
+    <row r="363" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="13"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="1:3" ht="46.5" customHeight="1">
+    <row r="364" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="13"/>
       <c r="B364" s="8"/>
       <c r="C364" s="5"/>
     </row>
-    <row r="365" spans="1:3" ht="46.5" customHeight="1">
+    <row r="365" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="13"/>
       <c r="B365" s="8"/>
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="1:3" ht="45.75" customHeight="1">
+    <row r="366" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="13"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="1:3" ht="14.25" customHeight="1">
+    <row r="367" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="13"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="1:3" ht="34.5" customHeight="1">
+    <row r="368" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="16"/>
       <c r="B368" s="16"/>
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="1:3" ht="45.75" customHeight="1">
+    <row r="369" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="13"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="1:3" ht="46.5" customHeight="1">
+    <row r="370" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="13"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="1:3" ht="46.5" customHeight="1">
+    <row r="371" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="13"/>
       <c r="B371" s="6"/>
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="1:3" ht="28.5" customHeight="1">
+    <row r="372" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="13"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="28.5" customHeight="1">
+    <row r="373" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="13"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="45.75" customHeight="1">
+    <row r="374" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="13"/>
       <c r="B374" s="6"/>
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="1:3" ht="28.5" customHeight="1">
+    <row r="375" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="13"/>
       <c r="B375" s="6"/>
       <c r="C375" s="7"/>
     </row>
-    <row r="376" spans="1:3" ht="28.5" customHeight="1">
+    <row r="376" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="13"/>
       <c r="B376" s="6"/>
       <c r="C376" s="7"/>
     </row>
-    <row r="377" spans="1:3" ht="14.25" customHeight="1">
+    <row r="377" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="13"/>
       <c r="B377" s="8"/>
       <c r="C377" s="7"/>
     </row>
-    <row r="378" spans="1:3" ht="57.75" customHeight="1">
+    <row r="378" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="13"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
     </row>
-    <row r="379" spans="1:3" ht="57.75" customHeight="1">
+    <row r="379" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="13"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
     </row>
-    <row r="380" spans="1:3" ht="57.75" customHeight="1">
+    <row r="380" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="13"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
     </row>
-    <row r="381" spans="1:3" ht="57.75" customHeight="1">
+    <row r="381" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="13"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
     </row>
-    <row r="382" spans="1:3" ht="57.75" customHeight="1">
+    <row r="382" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="13"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="1:3" ht="34.5" customHeight="1">
+    <row r="383" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="13"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
     </row>
-    <row r="384" spans="1:3" ht="28.5" customHeight="1">
+    <row r="384" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="16"/>
       <c r="B384" s="16"/>
       <c r="C384" s="16"/>
     </row>
-    <row r="385" spans="1:3" ht="57.75" customHeight="1">
+    <row r="385" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="13"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
     </row>
-    <row r="386" spans="1:3" ht="57.75" customHeight="1">
+    <row r="386" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="13"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="1:3" ht="57.75" customHeight="1">
+    <row r="387" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="13"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="1:3" ht="57.75" customHeight="1">
+    <row r="388" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="13"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="1:3" ht="57.75" customHeight="1">
+    <row r="389" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="13"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
     </row>
-    <row r="390" spans="1:3" ht="57.75" customHeight="1">
+    <row r="390" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="13"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="1:3" ht="57.75" customHeight="1">
+    <row r="391" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="13"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="1:3" ht="57.75" customHeight="1">
+    <row r="392" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="13"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
     </row>
-    <row r="393" spans="1:3" ht="57.75" customHeight="1">
+    <row r="393" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="13"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="1:3" ht="57.75" customHeight="1">
+    <row r="394" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="13"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="1:3" ht="46.5" customHeight="1">
+    <row r="395" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="13"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
     </row>
-    <row r="396" spans="1:3" ht="14.25" customHeight="1">
+    <row r="396" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="15"/>
       <c r="B396" s="15"/>
       <c r="C396" s="15"/>
     </row>
-    <row r="397" spans="1:3" ht="69" customHeight="1">
+    <row r="397" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="13"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="1:3" ht="69" customHeight="1">
+    <row r="398" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="13"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="1:3" ht="69" customHeight="1">
+    <row r="399" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="13"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="1:3" ht="34.5" customHeight="1">
+    <row r="400" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="13"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="1:3" ht="34.5" customHeight="1">
+    <row r="401" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="13"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
     </row>
-    <row r="402" spans="1:3" ht="34.5" customHeight="1">
+    <row r="402" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="13"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="1:3" ht="34.5" customHeight="1">
+    <row r="403" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="13"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="1:3" ht="12" customHeight="1">
+    <row r="404" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="15"/>
       <c r="B404" s="15"/>
       <c r="C404" s="15"/>
     </row>
-    <row r="405" spans="1:3" ht="34.5" customHeight="1">
+    <row r="405" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="13"/>
       <c r="B405" s="8"/>
       <c r="C405" s="5"/>
     </row>
-    <row r="406" spans="1:3" ht="45.75" customHeight="1">
+    <row r="406" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="13"/>
       <c r="B406" s="6"/>
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="1:3" ht="34.5" customHeight="1">
+    <row r="407" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="13"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="1:3" ht="34.5" customHeight="1">
+    <row r="408" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="13"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="1:3" ht="34.5" customHeight="1">
+    <row r="409" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="13"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="1:3" ht="34.5" customHeight="1">
+    <row r="410" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="13"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
     </row>
-    <row r="411" spans="1:3" ht="34.5" customHeight="1">
+    <row r="411" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="13"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="1:3" ht="28.5" customHeight="1">
+    <row r="412" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="13"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" ht="14.25" customHeight="1">
+    <row r="413" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="15"/>
       <c r="B413" s="15"/>
       <c r="C413" s="15"/>
     </row>
-    <row r="414" spans="1:3" ht="45.75" customHeight="1">
+    <row r="414" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="13"/>
       <c r="B414" s="8"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" ht="46.5" customHeight="1">
+    <row r="415" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="13"/>
       <c r="B415" s="8"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" ht="12" customHeight="1">
+    <row r="416" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="15"/>
       <c r="B416" s="15"/>
       <c r="C416" s="15"/>
     </row>
-    <row r="417" spans="1:3" ht="46.5" customHeight="1">
+    <row r="417" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="13"/>
       <c r="B417" s="8"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" ht="46.5" customHeight="1">
+    <row r="418" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="13"/>
       <c r="B418" s="8"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" ht="45.75" customHeight="1">
+    <row r="419" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="13"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" ht="57.75" customHeight="1">
+    <row r="420" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="13"/>
       <c r="B420" s="6"/>
       <c r="C420" s="8"/>
     </row>
-    <row r="421" spans="1:3" ht="57.75" customHeight="1">
+    <row r="421" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="13"/>
       <c r="B421" s="6"/>
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="1:3" ht="45.75" customHeight="1">
+    <row r="422" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="13"/>
       <c r="B422" s="8"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" ht="34.5" customHeight="1">
+    <row r="423" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="13"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="1:3" ht="34.5" customHeight="1">
+    <row r="424" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="13"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="1:3" ht="34.5" customHeight="1">
+    <row r="425" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="13"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" ht="46.5" customHeight="1">
+    <row r="426" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="13"/>
       <c r="B426" s="6"/>
       <c r="C426" s="5"/>
     </row>
-    <row r="427" spans="1:3" ht="12" customHeight="1">
+    <row r="427" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="15"/>
       <c r="B427" s="15"/>
       <c r="C427" s="15"/>
     </row>
-    <row r="428" spans="1:3" ht="34.5" customHeight="1">
+    <row r="428" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="13"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" ht="34.5" customHeight="1">
+    <row r="429" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="13"/>
       <c r="B429" s="8"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" ht="34.5" customHeight="1">
+    <row r="430" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="13"/>
       <c r="B430" s="8"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" ht="34.5" customHeight="1">
+    <row r="431" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="13"/>
       <c r="B431" s="8"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" ht="34.5" customHeight="1">
+    <row r="432" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="13"/>
       <c r="B432" s="8"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" ht="46.5" customHeight="1">
+    <row r="433" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="13"/>
       <c r="B433" s="8"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" ht="28.5" customHeight="1">
+    <row r="434" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="13"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" ht="34.5" customHeight="1">
+    <row r="435" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="13"/>
       <c r="B435" s="6"/>
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="1:3" ht="28.5" customHeight="1">
+    <row r="436" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="13"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" ht="34.5" customHeight="1">
+    <row r="437" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="13"/>
       <c r="B437" s="8"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" ht="12" customHeight="1">
+    <row r="438" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="15"/>
       <c r="B438" s="15"/>
       <c r="C438" s="15"/>
     </row>
-    <row r="439" spans="1:3" ht="28.5" customHeight="1">
+    <row r="439" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="13"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" ht="28.5" customHeight="1">
+    <row r="440" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="13"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" ht="34.5" customHeight="1">
+    <row r="441" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="13"/>
       <c r="B441" s="8"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" ht="28.5" customHeight="1">
+    <row r="442" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="13"/>
       <c r="B442" s="8"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" ht="28.5" customHeight="1">
+    <row r="443" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="13"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" ht="28.5" customHeight="1">
+    <row r="444" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="13"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" ht="28.5" customHeight="1">
+    <row r="445" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="13"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" ht="28.5" customHeight="1">
+    <row r="446" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="13"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" ht="23.25" customHeight="1">
+    <row r="447" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="13"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
     </row>
-    <row r="448" spans="1:3" ht="28.5" customHeight="1">
+    <row r="448" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="13"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="1:3" ht="12" customHeight="1">
+    <row r="449" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="15"/>
       <c r="B449" s="15"/>
       <c r="C449" s="15"/>
     </row>
-    <row r="450" spans="1:3" ht="28.5" customHeight="1">
+    <row r="450" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="13"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
     </row>
-    <row r="451" spans="1:3" ht="28.5" customHeight="1">
+    <row r="451" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="13"/>
       <c r="B451" s="8"/>
       <c r="C451" s="6"/>
     </row>
-    <row r="452" spans="1:3" ht="46.5" customHeight="1">
+    <row r="452" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="13"/>
       <c r="B452" s="6"/>
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="1:3" ht="28.5" customHeight="1">
+    <row r="453" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="13"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
     </row>
-    <row r="454" spans="1:3" ht="28.5" customHeight="1">
+    <row r="454" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="13"/>
       <c r="B454" s="8"/>
       <c r="C454" s="6"/>
     </row>
-    <row r="455" spans="1:3" ht="69" customHeight="1">
+    <row r="455" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="13"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="1:3" ht="69" customHeight="1">
+    <row r="456" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="13"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
     </row>
-    <row r="457" spans="1:3" ht="69" customHeight="1">
+    <row r="457" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="13"/>
       <c r="B457" s="8"/>
       <c r="C457" s="7"/>
     </row>
-    <row r="458" spans="1:3" ht="69" customHeight="1">
+    <row r="458" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="13"/>
       <c r="B458" s="8"/>
       <c r="C458" s="7"/>
     </row>
-    <row r="459" spans="1:3" ht="69" customHeight="1">
+    <row r="459" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="13"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
     </row>
-    <row r="460" spans="1:3" ht="12" customHeight="1">
+    <row r="460" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="15"/>
       <c r="B460" s="15"/>
       <c r="C460" s="15"/>
     </row>
-    <row r="461" spans="1:3" ht="69" customHeight="1">
+    <row r="461" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="13"/>
       <c r="B461" s="8"/>
       <c r="C461" s="7"/>
     </row>
-    <row r="462" spans="1:3" ht="69" customHeight="1">
+    <row r="462" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="13"/>
       <c r="B462" s="8"/>
       <c r="C462" s="7"/>
     </row>
-    <row r="463" spans="1:3" ht="69" customHeight="1">
+    <row r="463" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="13"/>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
     </row>
-    <row r="464" spans="1:3" ht="69" customHeight="1">
+    <row r="464" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="13"/>
       <c r="B464" s="8"/>
       <c r="C464" s="7"/>
     </row>
-    <row r="465" spans="1:3" ht="69" customHeight="1">
+    <row r="465" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="13"/>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
     </row>
-    <row r="466" spans="1:3" ht="69" customHeight="1">
+    <row r="466" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="13"/>
       <c r="B466" s="8"/>
       <c r="C466" s="7"/>
     </row>
-    <row r="467" spans="1:3" ht="69" customHeight="1">
+    <row r="467" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="13"/>
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
     </row>
-    <row r="468" spans="1:3" ht="46.5" customHeight="1">
+    <row r="468" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="13"/>
       <c r="B468" s="8"/>
       <c r="C468" s="7"/>
     </row>
-    <row r="469" spans="1:3" ht="46.5" customHeight="1">
+    <row r="469" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="13"/>
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
     </row>
-    <row r="470" spans="1:3" ht="46.5" customHeight="1">
+    <row r="470" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="13"/>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
     </row>
-    <row r="471" spans="1:3" ht="12" customHeight="1">
+    <row r="471" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="15"/>
       <c r="B471" s="15"/>
       <c r="C471" s="15"/>
     </row>
-    <row r="472" spans="1:3" ht="45.75" customHeight="1">
+    <row r="472" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="13"/>
       <c r="B472" s="8"/>
       <c r="C472" s="7"/>
     </row>
-    <row r="473" spans="1:3" ht="57.75" customHeight="1">
+    <row r="473" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="13"/>
       <c r="B473" s="6"/>
       <c r="C473" s="8"/>
     </row>
-    <row r="474" spans="1:3" ht="46.5" customHeight="1">
+    <row r="474" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="13"/>
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
     </row>
-    <row r="475" spans="1:3" ht="45.75" customHeight="1">
+    <row r="475" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="13"/>
       <c r="B475" s="6"/>
       <c r="C475" s="8"/>
     </row>
-    <row r="476" spans="1:3" ht="46.5" customHeight="1">
+    <row r="476" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="13"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
     </row>
-    <row r="477" spans="1:3" ht="46.5" customHeight="1">
+    <row r="477" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="13"/>
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
     </row>
-    <row r="478" spans="1:3" ht="45.75" customHeight="1">
+    <row r="478" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="13"/>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="1:3" ht="46.5" customHeight="1">
+    <row r="479" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="13"/>
       <c r="B479" s="8"/>
       <c r="C479" s="7"/>
     </row>
-    <row r="480" spans="1:3" ht="46.5" customHeight="1">
+    <row r="480" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="13"/>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="1:3" ht="46.5" customHeight="1">
+    <row r="481" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="13"/>
       <c r="B481" s="8"/>
       <c r="C481" s="7"/>
     </row>
-    <row r="482" spans="1:3" ht="12" customHeight="1">
+    <row r="482" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="15"/>
       <c r="B482" s="15"/>
       <c r="C482" s="15"/>
     </row>
-    <row r="483" spans="1:3" ht="45.75" customHeight="1">
+    <row r="483" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="13"/>
       <c r="B483" s="8"/>
       <c r="C483" s="6"/>
     </row>
-    <row r="484" spans="1:3" ht="46.5" customHeight="1">
+    <row r="484" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="13"/>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="1:3" ht="46.5" customHeight="1">
+    <row r="485" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="13"/>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="1:3" ht="57.75" customHeight="1">
+    <row r="486" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="13"/>
       <c r="B486" s="8"/>
       <c r="C486" s="7"/>
     </row>
-    <row r="487" spans="1:3" ht="57.75" customHeight="1">
+    <row r="487" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="13"/>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
     </row>
-    <row r="488" spans="1:3" ht="57.75" customHeight="1">
+    <row r="488" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="13"/>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
     </row>
-    <row r="489" spans="1:3" ht="57.75" customHeight="1">
+    <row r="489" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="13"/>
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
     </row>
-    <row r="490" spans="1:3" ht="57.75" customHeight="1">
+    <row r="490" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="13"/>
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
     </row>
-    <row r="491" spans="1:3" ht="28.5" customHeight="1">
+    <row r="491" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="13"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
     </row>
-    <row r="492" spans="1:3" ht="34.5" customHeight="1">
+    <row r="492" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="16"/>
       <c r="B492" s="8"/>
       <c r="C492" s="16"/>
     </row>
-    <row r="493" spans="1:3" ht="57.75" customHeight="1">
+    <row r="493" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="13"/>
       <c r="B493" s="8"/>
       <c r="C493" s="7"/>
     </row>
-    <row r="494" spans="1:3" ht="12" customHeight="1">
+    <row r="494" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="15"/>
       <c r="B494" s="15"/>
       <c r="C494" s="15"/>
     </row>
-    <row r="495" spans="1:3" ht="57.75" customHeight="1">
+    <row r="495" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="13"/>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
     </row>
-    <row r="496" spans="1:3" ht="57.75" customHeight="1">
+    <row r="496" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="13"/>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
     </row>
-    <row r="497" spans="1:3" ht="57.75" customHeight="1">
+    <row r="497" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="13"/>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
     </row>
-    <row r="498" spans="1:3" ht="57.75" customHeight="1">
+    <row r="498" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="13"/>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
     </row>
-    <row r="499" spans="1:3" ht="46.5" customHeight="1">
+    <row r="499" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="13"/>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
     </row>
-    <row r="500" spans="1:3" ht="45.75" customHeight="1">
+    <row r="500" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="13"/>
       <c r="B500" s="8"/>
       <c r="C500" s="7"/>
     </row>
-    <row r="501" spans="1:3" ht="28.5" customHeight="1">
+    <row r="501" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="13"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
     </row>
-    <row r="502" spans="1:3" ht="34.5" customHeight="1">
+    <row r="502" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="13"/>
       <c r="B502" s="6"/>
       <c r="C502" s="8"/>
     </row>
-    <row r="503" spans="1:3" ht="28.5" customHeight="1">
+    <row r="503" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="13"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
     </row>
-    <row r="504" spans="1:3" ht="28.5" customHeight="1">
+    <row r="504" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="13"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
     </row>
-    <row r="505" spans="1:3" ht="12" customHeight="1">
+    <row r="505" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="15"/>
       <c r="B505" s="15"/>
       <c r="C505" s="15"/>
     </row>
-    <row r="506" spans="1:3" ht="34.5" customHeight="1">
+    <row r="506" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="13"/>
       <c r="B506" s="8"/>
       <c r="C506" s="7"/>
     </row>
-    <row r="507" spans="1:3" ht="34.5" customHeight="1">
+    <row r="507" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="13"/>
       <c r="B507" s="8"/>
       <c r="C507" s="7"/>
     </row>
-    <row r="508" spans="1:3" ht="34.5" customHeight="1">
+    <row r="508" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="13"/>
       <c r="B508" s="8"/>
       <c r="C508" s="7"/>
     </row>
-    <row r="509" spans="1:3" ht="34.5" customHeight="1">
+    <row r="509" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="13"/>
       <c r="B509" s="8"/>
       <c r="C509" s="7"/>
     </row>
-    <row r="510" spans="1:3" ht="34.5" customHeight="1">
+    <row r="510" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="13"/>
       <c r="B510" s="8"/>
       <c r="C510" s="7"/>
     </row>
-    <row r="511" spans="1:3" ht="34.5" customHeight="1">
+    <row r="511" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="13"/>
       <c r="B511" s="8"/>
       <c r="C511" s="7"/>
     </row>
-    <row r="512" spans="1:3" ht="34.5" customHeight="1">
+    <row r="512" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="13"/>
       <c r="B512" s="8"/>
       <c r="C512" s="7"/>
     </row>
-    <row r="513" spans="1:3" ht="34.5" customHeight="1">
+    <row r="513" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="13"/>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
     </row>
-    <row r="514" spans="1:3" ht="34.5" customHeight="1">
+    <row r="514" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="13"/>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
     </row>
-    <row r="515" spans="1:3" ht="34.5" customHeight="1">
+    <row r="515" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="13"/>
       <c r="B515" s="8"/>
       <c r="C515" s="6"/>
     </row>
-    <row r="516" spans="1:3" ht="12" customHeight="1">
+    <row r="516" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="15"/>
       <c r="B516" s="15"/>
       <c r="C516" s="15"/>
     </row>
-    <row r="517" spans="1:3" ht="34.5" customHeight="1">
+    <row r="517" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="13"/>
       <c r="B517" s="8"/>
       <c r="C517" s="6"/>
     </row>
-    <row r="518" spans="1:3" ht="46.5" customHeight="1">
+    <row r="518" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="13"/>
       <c r="B518" s="8"/>
       <c r="C518" s="6"/>
     </row>
-    <row r="519" spans="1:3" ht="46.5" customHeight="1">
+    <row r="519" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="13"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
     </row>
-    <row r="520" spans="1:3" ht="34.5" customHeight="1">
+    <row r="520" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="13"/>
       <c r="B520" s="8"/>
       <c r="C520" s="7"/>
     </row>
-    <row r="521" spans="1:3" ht="126.75" customHeight="1">
+    <row r="521" spans="1:3" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="13"/>
       <c r="B521" s="6"/>
       <c r="C521" s="8"/>
     </row>
-    <row r="522" spans="1:3" ht="69" customHeight="1">
+    <row r="522" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="13"/>
       <c r="B522" s="6"/>
       <c r="C522" s="8"/>
     </row>
-    <row r="523" spans="1:3" ht="34.5" customHeight="1">
+    <row r="523" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="13"/>
       <c r="B523" s="6"/>
       <c r="C523" s="8"/>
     </row>
-    <row r="524" spans="1:3" ht="34.5" customHeight="1">
+    <row r="524" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="16"/>
       <c r="B524" s="6"/>
       <c r="C524" s="16"/>
     </row>
-    <row r="525" spans="1:3" ht="103.5" customHeight="1">
+    <row r="525" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="13"/>
       <c r="B525" s="6"/>
       <c r="C525" s="8"/>
     </row>
-    <row r="526" spans="1:3" ht="69" customHeight="1">
+    <row r="526" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="13"/>
       <c r="B526" s="6"/>
       <c r="C526" s="8"/>
     </row>
-    <row r="527" spans="1:3" ht="46.5" customHeight="1">
+    <row r="527" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="13"/>
       <c r="B527" s="6"/>
       <c r="C527" s="8"/>
     </row>
-    <row r="528" spans="1:3" ht="12" customHeight="1">
+    <row r="528" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="15"/>
       <c r="B528" s="15"/>
       <c r="C528" s="15"/>
     </row>
-    <row r="529" spans="1:3" ht="34.5" customHeight="1">
+    <row r="529" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="13"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
     </row>
-    <row r="530" spans="1:3" ht="69" customHeight="1">
+    <row r="530" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="13"/>
       <c r="B530" s="6"/>
       <c r="C530" s="8"/>
     </row>
-    <row r="531" spans="1:3" ht="34.5" customHeight="1">
+    <row r="531" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="13"/>
       <c r="B531" s="6"/>
       <c r="C531" s="8"/>
     </row>
-    <row r="532" spans="1:3" ht="34.5" customHeight="1">
+    <row r="532" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="13"/>
       <c r="B532" s="6"/>
       <c r="C532" s="8"/>
     </row>
-    <row r="533" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="534" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="535" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="536" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="537" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="538" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="539" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="540" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="541" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="542" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="543" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="544" spans="1:3" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="533" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
